--- a/output/1Y_P68_1VAL-D.xlsx
+++ b/output/1Y_P68_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>559.3717</v>
       </c>
-      <c r="G2" s="1">
-        <v>559.3717</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.146199999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8772</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146199999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E3" s="1">
+        <v>559.3717</v>
+      </c>
       <c r="F3" s="1">
         <v>549.8312</v>
       </c>
-      <c r="G3" s="1">
-        <v>1109.2029</v>
-      </c>
       <c r="H3" s="1">
-        <v>20068.9193</v>
+        <v>10120.7684</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.031</v>
+        <v>10120.7684</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8772</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20068.9193</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0061</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E4" s="1">
+        <v>1109.2029</v>
+      </c>
       <c r="F4" s="1">
         <v>567.756</v>
       </c>
-      <c r="G4" s="1">
-        <v>1676.9589</v>
-      </c>
       <c r="H4" s="1">
-        <v>29383.3387</v>
+        <v>19435.2316</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8895</v>
+        <v>19435.2316</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.031</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29383.3387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0228</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.806</v>
       </c>
+      <c r="E5" s="1">
+        <v>1676.9589</v>
+      </c>
       <c r="F5" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G5" s="1">
-        <v>2238.5674</v>
-      </c>
       <c r="H5" s="1">
-        <v>39653.3107</v>
+        <v>29705.1472</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8686</v>
+        <v>29705.1472</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8895</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39653.3107</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0069</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E6" s="1">
+        <v>2238.5674</v>
+      </c>
       <c r="F6" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>2783.4552</v>
-      </c>
       <c r="H6" s="1">
-        <v>50818.0987</v>
+        <v>40869.9721</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9633</v>
+        <v>40869.9721</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8686</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50818.0987</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E7" s="1">
+        <v>2783.4552</v>
+      </c>
       <c r="F7" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G7" s="1">
-        <v>3345.6541</v>
-      </c>
       <c r="H7" s="1">
-        <v>59201.6838</v>
+        <v>49253.5186</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9337</v>
+        <v>49253.5186</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9633</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59201.6838</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0266</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E8" s="1">
+        <v>3345.6541</v>
+      </c>
       <c r="F8" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G8" s="1">
-        <v>3897.3204</v>
-      </c>
       <c r="H8" s="1">
-        <v>70279.98910000001</v>
+        <v>60331.8458</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9611</v>
+        <v>60331.8458</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9337</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70279.98910000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0156</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E9" s="1">
+        <v>3897.3204</v>
+      </c>
       <c r="F9" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G9" s="1">
-        <v>4456.5514</v>
-      </c>
       <c r="H9" s="1">
-        <v>79277.592</v>
+        <v>69329.4327</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9511</v>
+        <v>69329.4327</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9611</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79277.592</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0125</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,38 +1126,38 @@
       <c r="D10" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E10" s="1">
+        <v>4456.5514</v>
+      </c>
       <c r="F10" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G10" s="1">
-        <v>5015.4697</v>
-      </c>
       <c r="H10" s="1">
-        <v>89270.3458</v>
+        <v>79322.1575</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9445</v>
+        <v>79322.1575</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9511</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89270.3458</v>
       </c>
       <c r="Q10" s="3">
         <v>-0.0001</v>
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E11" s="1">
+        <v>5015.4697</v>
+      </c>
       <c r="F11" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G11" s="1">
-        <v>5630.6991</v>
-      </c>
       <c r="H11" s="1">
-        <v>91047.27860000001</v>
+        <v>81099.1425</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7598</v>
+        <v>81099.1425</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.9445</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.5</v>
       </c>
-      <c r="L11" s="1">
-        <v>2256.9614</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7743.0386</v>
+        <v>2005.4481</v>
       </c>
       <c r="O11" s="1">
-        <v>2256.9614</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93304.24000000001</v>
+        <v>-7994.5519</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0601</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E12" s="1">
+        <v>5630.6991</v>
+      </c>
       <c r="F12" s="1">
-        <v>720.0616</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6350.7608</v>
+        <v>711.9246000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>97641.04150000001</v>
+        <v>86570.3098</v>
       </c>
       <c r="I12" s="1">
-        <v>111128.4807</v>
+        <v>2005.4481</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4985</v>
+        <v>88575.7579</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101002.7241</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.9379</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11128.4807</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1128.4807</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>98769.52220000001</v>
+        <v>-11002.7241</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0439</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E13" s="1">
+        <v>6342.6238</v>
+      </c>
       <c r="F13" s="1">
-        <v>712.5282999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7063.2891</v>
+        <v>704.4764</v>
       </c>
       <c r="H13" s="1">
-        <v>109744.4411</v>
+        <v>98547.2481</v>
       </c>
       <c r="I13" s="1">
-        <v>122256.9614</v>
+        <v>1002.7241</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3088</v>
+        <v>99549.9721</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112005.4481</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6592</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11128.4807</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>109744.4411</v>
+        <v>-11002.7241</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E14" s="1">
+        <v>7047.1002</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7063.2891</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6342.6238</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112537.2568</v>
       </c>
       <c r="I14" s="1">
-        <v>122256.9614</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3088</v>
+        <v>112537.2568</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112005.4481</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8938</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112795.782</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112795.782</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112795.782</v>
+        <v>101287.2616</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.058</v>
+        <v>0.0273</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.8772</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3717</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146199999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8772</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146199999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.1874</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>559.3717</v>
       </c>
       <c r="F3" s="1">
         <v>546.0221</v>
       </c>
       <c r="G3" s="1">
-        <v>1105.3938</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10120.7684</v>
       </c>
       <c r="I3" s="1">
-        <v>19930.7215</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0304</v>
+        <v>10120.7684</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9930.7215</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7533</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9930.7215</v>
       </c>
-      <c r="O3" s="1">
-        <v>69.27849999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20069.2785</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0061</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.6132</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1105.3938</v>
       </c>
       <c r="F4" s="1">
         <v>571.6893</v>
       </c>
       <c r="G4" s="1">
-        <v>1677.0831</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29385.5146</v>
+        <v>19368.4885</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>69.27849999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8882</v>
+        <v>19437.767</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0931</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10069.2785</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29385.5146</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0227</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.806</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1677.0831</v>
       </c>
       <c r="F5" s="1">
         <v>561.6084</v>
       </c>
       <c r="G5" s="1">
-        <v>2238.6915</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39655.5104</v>
+        <v>29707.3469</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8676</v>
+        <v>29707.3469</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8882</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39655.5104</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0069</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.3524</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2238.6915</v>
       </c>
       <c r="F6" s="1">
         <v>499.954</v>
       </c>
       <c r="G6" s="1">
-        <v>2738.6456</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40872.2392</v>
       </c>
       <c r="I6" s="1">
-        <v>49175.3564</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9561</v>
+        <v>40872.2392</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39175.3564</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.4992</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9175.356400000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>824.6436</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50824.6436</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.7873</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2738.6456</v>
       </c>
       <c r="F7" s="1">
         <v>608.5602</v>
       </c>
       <c r="G7" s="1">
-        <v>3347.2058</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59229.1417</v>
+        <v>48460.6073</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>824.6436</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9254</v>
+        <v>49285.2509</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.2572</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10824.6436</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59229.1417</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0262</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.1269</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3347.2058</v>
       </c>
       <c r="F8" s="1">
         <v>534.588</v>
       </c>
       <c r="G8" s="1">
-        <v>3881.7938</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60359.8278</v>
       </c>
       <c r="I8" s="1">
-        <v>69690.4235</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9531</v>
+        <v>60359.8278</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59690.4235</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8329</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9690.423500000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>309.5765</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70309.5765</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0156</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.8817</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3881.7938</v>
       </c>
       <c r="F9" s="1">
         <v>576.5434</v>
       </c>
       <c r="G9" s="1">
-        <v>4458.3373</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>79309.3615</v>
+        <v>69053.23050000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>309.5765</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9439</v>
+        <v>69362.807</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10309.5765</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79309.3615</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0125</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,40 +1880,40 @@
         <v>17.8917</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4458.3373</v>
       </c>
       <c r="F10" s="1">
         <v>558.9184</v>
       </c>
       <c r="G10" s="1">
-        <v>5017.2556</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>89302.13310000001</v>
+        <v>79353.9448</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9381</v>
+        <v>79353.9448</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9439</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89302.13310000001</v>
       </c>
       <c r="Q10" s="3">
         <v>-0.0001</v>
@@ -1942,43 +1933,43 @@
         <v>16.2541</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5017.2556</v>
       </c>
       <c r="F11" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5632.485</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91076.15640000001</v>
+        <v>81128.0202</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7542</v>
+        <v>81128.0202</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.9381</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.5</v>
       </c>
-      <c r="L11" s="1">
-        <v>2257.765</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7742.235</v>
+        <v>2006.2518</v>
       </c>
       <c r="O11" s="1">
-        <v>2257.765</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93333.92140000001</v>
+        <v>-7993.7482</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0601</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.4549</v>
       </c>
       <c r="E12" s="1">
+        <v>5632.485</v>
+      </c>
+      <c r="F12" s="1">
+        <v>776.8573</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>793.1313</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6425.6163</v>
-      </c>
       <c r="H12" s="1">
-        <v>98791.9234</v>
+        <v>86597.7675</v>
       </c>
       <c r="I12" s="1">
-        <v>112257.765</v>
+        <v>2006.2518</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4703</v>
+        <v>88604.0193</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102006.2518</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.1103</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12257.765</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>98791.9234</v>
+        <v>-12006.2518</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.044</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.6183</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6409.3423</v>
       </c>
       <c r="F13" s="1">
         <v>640.2745</v>
       </c>
       <c r="G13" s="1">
-        <v>7065.8909</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>109784.8664</v>
+        <v>99583.8744</v>
       </c>
       <c r="I13" s="1">
-        <v>122257.765</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3025</v>
+        <v>99583.8744</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112006.2518</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4755</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>109784.8664</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0091</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>16.0526</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7049.6169</v>
       </c>
       <c r="F14" s="1">
-        <v>-7065.8909</v>
+        <v>-7049.6169</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112577.4466</v>
       </c>
       <c r="I14" s="1">
-        <v>122257.765</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3025</v>
+        <v>112577.4466</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112006.2518</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8883</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112837.3313</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112837.3313</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112837.3313</v>
+        <v>112577.4466</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.058</v>
+        <v>0.0273</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.8772</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3717</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146199999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8772</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146199999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.1874</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>559.3717</v>
       </c>
       <c r="F3" s="1">
         <v>548.7855</v>
       </c>
       <c r="G3" s="1">
-        <v>1108.1573</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10120.7684</v>
       </c>
       <c r="I3" s="1">
-        <v>19980.9821</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0308</v>
+        <v>10120.7684</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9980.982099999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8432</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9980.982099999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>19.0179</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20069.0179</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0061</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.6132</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1108.1573</v>
       </c>
       <c r="F4" s="1">
         <v>568.8357999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1676.993</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29383.936</v>
+        <v>19416.9098</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>19.0179</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8892</v>
+        <v>19435.9276</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.048</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10019.0179</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29383.936</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0228</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.806</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1676.993</v>
       </c>
       <c r="F5" s="1">
         <v>561.6084</v>
       </c>
       <c r="G5" s="1">
-        <v>2238.6015</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39653.9145</v>
+        <v>29705.751</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8683</v>
+        <v>29705.751</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8892</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39653.9145</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0069</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.3524</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2238.6015</v>
       </c>
       <c r="F6" s="1">
         <v>527.5679</v>
       </c>
       <c r="G6" s="1">
-        <v>2766.1693</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40870.5944</v>
       </c>
       <c r="I6" s="1">
-        <v>49682.1363</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9606</v>
+        <v>40870.5944</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39682.1363</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7263</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9682.1363</v>
       </c>
-      <c r="O6" s="1">
-        <v>317.8637</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50820.37</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.7873</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2766.1693</v>
       </c>
       <c r="F7" s="1">
         <v>580.0691</v>
       </c>
       <c r="G7" s="1">
-        <v>3346.2384</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59212.0238</v>
+        <v>48947.6425</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>317.8637</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9306</v>
+        <v>49265.5062</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0755</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10317.8637</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59212.0238</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0264</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.1269</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3346.2384</v>
       </c>
       <c r="F8" s="1">
         <v>551.6663</v>
       </c>
       <c r="G8" s="1">
-        <v>3897.9047</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70290.52650000001</v>
+        <v>60342.3832</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9584</v>
+        <v>60342.3832</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9306</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70290.52650000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0156</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.8817</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3897.9047</v>
       </c>
       <c r="F9" s="1">
         <v>559.2309</v>
       </c>
       <c r="G9" s="1">
-        <v>4457.1357</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>79287.9869</v>
+        <v>69339.8276</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9487</v>
+        <v>69339.8276</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9584</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79287.9869</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0125</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,40 +2648,40 @@
         <v>17.8917</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4457.1357</v>
       </c>
       <c r="F10" s="1">
         <v>558.9184</v>
       </c>
       <c r="G10" s="1">
-        <v>5016.0541</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89280.74649999999</v>
+        <v>79332.5582</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9424</v>
+        <v>79332.5582</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9487</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89280.74649999999</v>
       </c>
       <c r="Q10" s="3">
         <v>-0.0001</v>
@@ -2716,43 +2701,43 @@
         <v>16.2541</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5016.0541</v>
       </c>
       <c r="F11" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5631.2835</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91056.7274</v>
+        <v>81108.5912</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7579</v>
+        <v>81108.5912</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.9424</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.5</v>
       </c>
-      <c r="L11" s="1">
-        <v>2257.2243</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7742.7757</v>
+        <v>2005.7111</v>
       </c>
       <c r="O11" s="1">
-        <v>2257.2243</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93313.95170000001</v>
+        <v>-7994.2889</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0601</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.4549</v>
       </c>
       <c r="E12" s="1">
+        <v>5631.2835</v>
+      </c>
+      <c r="F12" s="1">
+        <v>776.8223</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>793.0963</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6424.3798</v>
-      </c>
       <c r="H12" s="1">
-        <v>98772.91190000001</v>
+        <v>86579.2939</v>
       </c>
       <c r="I12" s="1">
-        <v>112257.2243</v>
+        <v>2005.7111</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4736</v>
+        <v>88585.0049</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102005.7111</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.1141</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12257.2243</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>98772.91190000001</v>
+        <v>-12005.7111</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.044</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.6183</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6408.1058</v>
       </c>
       <c r="F13" s="1">
         <v>640.2745</v>
       </c>
       <c r="G13" s="1">
-        <v>7064.6543</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109765.6538</v>
+        <v>99564.6618</v>
       </c>
       <c r="I13" s="1">
-        <v>122257.2243</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3055</v>
+        <v>99564.6618</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112005.7111</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4788</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>109765.6538</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0091</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.0526</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7048.3803</v>
       </c>
       <c r="F14" s="1">
-        <v>-7064.6543</v>
+        <v>-7048.3803</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112557.6998</v>
       </c>
       <c r="I14" s="1">
-        <v>122257.2243</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3055</v>
+        <v>112557.6998</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112005.7111</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.891</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112817.5845</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112817.5845</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112817.5845</v>
+        <v>112557.6998</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.058</v>
+        <v>0.0273</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.8772</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3717</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146199999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8772</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146199999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.1874</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>559.3717</v>
       </c>
       <c r="F3" s="1">
         <v>551.549</v>
       </c>
       <c r="G3" s="1">
-        <v>1110.9207</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10120.7684</v>
       </c>
       <c r="I3" s="1">
-        <v>20031.2427</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.0312</v>
+        <v>10120.7684</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10031.2427</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.9331</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10031.2427</v>
       </c>
-      <c r="O3" s="1">
-        <v>-31.2427</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20068.7573</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.006</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.6132</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1110.9207</v>
       </c>
       <c r="F4" s="1">
         <v>565.9822</v>
       </c>
       <c r="G4" s="1">
-        <v>1676.9029</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29382.3575</v>
+        <v>19465.331</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-31.2427</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8901</v>
+        <v>19434.0883</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0031</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9968.757299999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29382.3575</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0228</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.806</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1676.9029</v>
       </c>
       <c r="F5" s="1">
         <v>561.6084</v>
       </c>
       <c r="G5" s="1">
-        <v>2238.5114</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39652.3187</v>
+        <v>29704.1552</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.869</v>
+        <v>29704.1552</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8901</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39652.3187</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0069</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.3524</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2238.5114</v>
       </c>
       <c r="F6" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2783.3992</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50817.0763</v>
+        <v>40868.9496</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9636</v>
+        <v>40868.9496</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.869</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50817.0763</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.7873</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2783.3992</v>
       </c>
       <c r="F7" s="1">
         <v>562.1989</v>
       </c>
       <c r="G7" s="1">
-        <v>3345.5981</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59200.6929</v>
+        <v>49252.5276</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.934</v>
+        <v>49252.5276</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9636</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59200.6929</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0266</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.1269</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3345.5981</v>
       </c>
       <c r="F8" s="1">
         <v>551.6663</v>
       </c>
       <c r="G8" s="1">
-        <v>3897.2644</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70278.97930000001</v>
+        <v>60330.8359</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9613</v>
+        <v>60330.8359</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.934</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70278.97930000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0156</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.8817</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3897.2644</v>
       </c>
       <c r="F9" s="1">
         <v>559.2309</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.4953</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>79276.5958</v>
+        <v>69328.4365</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9513</v>
+        <v>69328.4365</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9613</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79276.5958</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0125</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,40 +3416,40 @@
         <v>17.8917</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4456.4953</v>
       </c>
       <c r="F10" s="1">
         <v>558.9184</v>
       </c>
       <c r="G10" s="1">
-        <v>5015.4137</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89269.349</v>
+        <v>79321.16069999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9447</v>
+        <v>79321.16069999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9513</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89269.349</v>
       </c>
       <c r="Q10" s="3">
         <v>-0.0001</v>
@@ -3490,43 +3469,43 @@
         <v>16.2541</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5015.4137</v>
       </c>
       <c r="F11" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5630.6431</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91046.3731</v>
+        <v>81098.2369</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.76</v>
+        <v>81098.2369</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.9447</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.5</v>
       </c>
-      <c r="L11" s="1">
-        <v>2256.9362</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7743.0638</v>
+        <v>2005.4229</v>
       </c>
       <c r="O11" s="1">
-        <v>2256.9362</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93303.30929999999</v>
+        <v>-7994.5771</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0601</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.4549</v>
       </c>
       <c r="E12" s="1">
+        <v>5630.6431</v>
+      </c>
+      <c r="F12" s="1">
+        <v>776.8037</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>793.0777</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6423.7208</v>
-      </c>
       <c r="H12" s="1">
-        <v>98762.7801</v>
+        <v>86569.4488</v>
       </c>
       <c r="I12" s="1">
-        <v>112256.9362</v>
+        <v>2005.4229</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4754</v>
+        <v>88574.8717</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102005.4229</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.1161</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12256.9362</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>98762.7801</v>
+        <v>-12005.4229</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.044</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.6183</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6407.4468</v>
       </c>
       <c r="F13" s="1">
         <v>640.2745</v>
       </c>
       <c r="G13" s="1">
-        <v>7063.9953</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109755.4149</v>
+        <v>99554.42290000001</v>
       </c>
       <c r="I13" s="1">
-        <v>122256.9362</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3071</v>
+        <v>99554.42290000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112005.4229</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4805</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>109755.4149</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0091</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.0526</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7047.7213</v>
       </c>
       <c r="F14" s="1">
-        <v>-7063.9953</v>
+        <v>-7047.7213</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112547.1762</v>
       </c>
       <c r="I14" s="1">
-        <v>122256.9362</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3071</v>
+        <v>112547.1762</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112005.4229</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8924</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112807.0609</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112807.0609</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112807.0609</v>
+        <v>112547.1762</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.058</v>
+        <v>0.0273</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.8772</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>559.3717</v>
       </c>
       <c r="G2" s="1">
-        <v>559.3717</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.146199999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8772</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.146199999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.1874</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>559.3717</v>
       </c>
       <c r="F3" s="1">
         <v>549.8312</v>
       </c>
       <c r="G3" s="1">
-        <v>1109.2029</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20068.9193</v>
+        <v>10120.7684</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>18.031</v>
+        <v>10120.7684</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8772</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20068.9193</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0061</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.6132</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1109.2029</v>
       </c>
       <c r="F4" s="1">
         <v>567.756</v>
       </c>
       <c r="G4" s="1">
-        <v>1676.9589</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29383.3387</v>
+        <v>19435.2316</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8895</v>
+        <v>19435.2316</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.031</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29383.3387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0228</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.806</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1676.9589</v>
       </c>
       <c r="F5" s="1">
         <v>561.6084</v>
       </c>
       <c r="G5" s="1">
-        <v>2238.5674</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39653.3107</v>
+        <v>29705.1472</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8686</v>
+        <v>29705.1472</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8895</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39653.3107</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0069</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.3524</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2238.5674</v>
       </c>
       <c r="F6" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2783.4552</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50818.0987</v>
+        <v>40869.9721</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9633</v>
+        <v>40869.9721</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8686</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50818.0987</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0235</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.7873</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2783.4552</v>
       </c>
       <c r="F7" s="1">
         <v>562.1989</v>
       </c>
       <c r="G7" s="1">
-        <v>3345.6541</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59201.6838</v>
+        <v>49253.5186</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9337</v>
+        <v>49253.5186</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9633</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59201.6838</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0266</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.1269</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3345.6541</v>
       </c>
       <c r="F8" s="1">
         <v>551.6663</v>
       </c>
       <c r="G8" s="1">
-        <v>3897.3204</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70279.98910000001</v>
+        <v>60331.8458</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9611</v>
+        <v>60331.8458</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9337</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70279.98910000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0156</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.8817</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3897.3204</v>
       </c>
       <c r="F9" s="1">
         <v>559.2309</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.5514</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79277.592</v>
+        <v>69329.4327</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9511</v>
+        <v>69329.4327</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9611</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79277.592</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0125</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,40 +4184,40 @@
         <v>17.8917</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4456.5514</v>
       </c>
       <c r="F10" s="1">
         <v>558.9184</v>
       </c>
       <c r="G10" s="1">
-        <v>5015.4697</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89270.3458</v>
+        <v>79322.1575</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9445</v>
+        <v>79322.1575</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.9511</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89270.3458</v>
       </c>
       <c r="Q10" s="3">
         <v>-0.0001</v>
@@ -4264,43 +4237,43 @@
         <v>16.2541</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5015.4697</v>
       </c>
       <c r="F11" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5630.6991</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91047.27860000001</v>
+        <v>81099.1425</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.7598</v>
+        <v>81099.1425</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17.9445</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.5</v>
       </c>
-      <c r="L11" s="1">
-        <v>2256.9614</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-7743.0386</v>
+        <v>2005.4481</v>
       </c>
       <c r="O11" s="1">
-        <v>2256.9614</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93304.24000000001</v>
+        <v>-7994.5519</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0601</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.4549</v>
       </c>
       <c r="E12" s="1">
+        <v>5630.6991</v>
+      </c>
+      <c r="F12" s="1">
+        <v>776.8053</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>793.0793</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6423.7784</v>
-      </c>
       <c r="H12" s="1">
-        <v>98763.66620000001</v>
+        <v>86570.3098</v>
       </c>
       <c r="I12" s="1">
-        <v>112256.9614</v>
+        <v>2005.4481</v>
       </c>
       <c r="J12" s="1">
-        <v>17.4752</v>
+        <v>88575.7579</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102005.4481</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.1159</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12256.9614</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>98763.66620000001</v>
+        <v>-12005.4481</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.044</v>
+        <v>-0.0277</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.6183</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6407.5044</v>
       </c>
       <c r="F13" s="1">
         <v>640.2745</v>
       </c>
       <c r="G13" s="1">
-        <v>7064.053</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>109756.3103</v>
+        <v>99555.3183</v>
       </c>
       <c r="I13" s="1">
-        <v>122256.9614</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3069</v>
+        <v>99555.3183</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112005.4481</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4804</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>109756.3103</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0091</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.0526</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7047.779</v>
       </c>
       <c r="F14" s="1">
-        <v>-7064.053</v>
+        <v>-7047.779</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112548.0966</v>
       </c>
       <c r="I14" s="1">
-        <v>122256.9614</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3069</v>
+        <v>112548.0966</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112005.4481</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.8923</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112807.9812</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112807.9812</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112807.9812</v>
+        <v>112548.0966</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.058</v>
+        <v>0.0273</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.0093</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.3088</v>
+        <v>15.8938</v>
       </c>
       <c r="D3" s="1">
-        <v>17.3025</v>
+        <v>15.8883</v>
       </c>
       <c r="E3" s="1">
-        <v>17.3055</v>
+        <v>15.891</v>
       </c>
       <c r="F3" s="1">
-        <v>17.3071</v>
+        <v>15.8924</v>
       </c>
       <c r="G3" s="1">
-        <v>17.3069</v>
+        <v>15.8923</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.09959999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1631</v>
+        <v>-0.094</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1624</v>
+        <v>-0.09320000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1627</v>
+        <v>-0.09370000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.163</v>
+        <v>-0.094</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1629</v>
+        <v>-0.0939</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1213</v>
       </c>
       <c r="C5" s="3">
-        <v>0.095</v>
+        <v>0.1146</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0951</v>
+        <v>0.1145</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0951</v>
+        <v>0.1146</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0951</v>
+        <v>0.1147</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0951</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.9886</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.9298</v>
+        <v>-0.9974</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.9217</v>
+        <v>-0.9918</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.9257</v>
+        <v>-0.9948</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.9279</v>
+        <v>-0.9966</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.9275</v>
+        <v>-0.9963</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1094</v>
+        <v>-0.2755</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1088</v>
+        <v>-0.1126</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.109</v>
+        <v>-0.1128</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1091</v>
+        <v>-0.1129</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.109</v>
+        <v>-0.1129</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2256.9614</v>
+        <v>2005.4481</v>
       </c>
       <c r="D8" s="1">
-        <v>2257.765</v>
+        <v>2006.2518</v>
       </c>
       <c r="E8" s="1">
-        <v>2257.2243</v>
+        <v>2005.7111</v>
       </c>
       <c r="F8" s="1">
-        <v>2256.9362</v>
+        <v>2005.4229</v>
       </c>
       <c r="G8" s="1">
-        <v>2256.9614</v>
+        <v>2005.4481</v>
       </c>
     </row>
   </sheetData>
